--- a/demo2/document/Springメモ.xlsx
+++ b/demo2/document/Springメモ.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
@@ -261,7 +261,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1"/>
-            <a:t>topAdmin.html</a:t>
+            <a:t>admin_menu.html</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
         </a:p>
@@ -1859,7 +1859,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1000" b="1"/>
-            <a:t>topNormal.html</a:t>
+            <a:t>normal_menu.html</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1000" b="1"/>
         </a:p>
@@ -2437,411 +2437,6 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>219075</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>42</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="164" name="角丸四角形 163"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="5219700" y="1819275"/>
-          <a:ext cx="4810125" cy="2847975"/>
-        </a:xfrm>
-        <a:prstGeom prst="roundRect">
-          <a:avLst>
-            <a:gd name="adj" fmla="val 4833"/>
-          </a:avLst>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFCCFF"/>
-        </a:solidFill>
-        <a:ln w="28575">
-          <a:solidFill>
-            <a:srgbClr val="FF0000"/>
-          </a:solidFill>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:lnRef>
-        <a:fillRef idx="2">
-          <a:schemeClr val="accent6"/>
-        </a:fillRef>
-        <a:effectRef idx="1">
-          <a:schemeClr val="accent6"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>＜１リクエストの処理の流れイメージ＞</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>■遷移元画面／ログイン画面（本部）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="7030A0"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>Submit</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>ボタン押下（申込発生）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>」という住所の営業所</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>(Controller)</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>へ荷物を送り届けます。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓荷物：</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>loginForm</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>という箱に</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>user,password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>という”商品の引換券”が入っています。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-        </a:p>
-        <a:p>
-          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
-            <a:lnSpc>
-              <a:spcPct val="100000"/>
-            </a:lnSpc>
-            <a:spcBef>
-              <a:spcPts val="0"/>
-            </a:spcBef>
-            <a:spcAft>
-              <a:spcPts val="0"/>
-            </a:spcAft>
-            <a:buClrTx/>
-            <a:buSzTx/>
-            <a:buFontTx/>
-            <a:buNone/>
-            <a:tabLst/>
-            <a:defRPr/>
-          </a:pPr>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>※</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800" b="1">
-              <a:solidFill>
-                <a:srgbClr val="0000FF"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>user,password</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>は</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>&lt;form&gt;&lt;/form&gt;</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="800">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
-            <a:t>の中に記述しないと対象外商品としてみなされ送られません。</a:t>
-          </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>■</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>Controller</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>／</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>LoginController.java</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>（営業所）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓「</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>RequestMapping="</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>/login</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900"/>
-            <a:t>"</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>」という情報を元に営業所に届けられた商品は、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓営業所内</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="none"/>
-            <a:t>で</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="none" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" u="none"/>
-            <a:t>”商品の引換券”→”実際の商品（次画面に表示したい内容）” </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>に交換して、</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓最終的に顧客ごとに振り分けます。</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>↓</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>■遷移先画面／一般ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>画面（顧客</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>A</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>）</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1" baseline="0"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1" baseline="0"/>
-            <a:t>or </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>管理者ユーザ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>TOP</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>画面（顧客</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="900" b="1"/>
-            <a:t>B</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900" b="1"/>
-            <a:t>）</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="900"/>
-            <a:t>　　受け取った商品を画面に表示します。</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>85725</xdr:colOff>
       <xdr:row>60</xdr:row>
@@ -3068,7 +2663,7 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" b="1"/>
-            <a:t>UserInfoController.java</a:t>
+            <a:t>UserController.java</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100" b="1"/>
         </a:p>
@@ -4376,7 +3971,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office ​​テーマ">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -4418,7 +4013,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4453,7 +4048,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4667,7 +4262,9 @@
   </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="AQ46" sqref="AQ46"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
